--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\io-model\BECbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F6AD14-DC6F-4874-8706-04765BFC4EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="330" windowWidth="15360" windowHeight="6570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="870" windowWidth="24090" windowHeight="15945"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="OECD_VAL" sheetId="8" r:id="rId2"/>
-    <sheet name="BECbIC" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD VAL" sheetId="7" r:id="rId2"/>
+    <sheet name="IND BEbIC" sheetId="10" r:id="rId3"/>
+    <sheet name="US BEbIC" sheetId="11" r:id="rId4"/>
+    <sheet name="US BECbIC" sheetId="12" r:id="rId5"/>
+    <sheet name="Chem Pharma Split" sheetId="8" r:id="rId6"/>
+    <sheet name="BECbIC" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>Source:</t>
   </si>
@@ -91,9 +94,6 @@
     <t>ISIC 19</t>
   </si>
   <si>
-    <t>ISIC 20T21</t>
-  </si>
-  <si>
     <t>ISIC 22</t>
   </si>
   <si>
@@ -307,6 +307,9 @@
     <t>GOPS: Gross operating surplus and mixed income</t>
   </si>
   <si>
+    <t>Data extracted on 03 Jun 2020 20:52 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
     <t>Employee Compensation</t>
   </si>
   <si>
@@ -334,24 +337,60 @@
     <t>BECbIC BAU Employee Compensation by ISIC Code</t>
   </si>
   <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>Most Industries</t>
+  </si>
+  <si>
     <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
   </si>
   <si>
+    <t>Chemicals and Pharmaceuticals Industries</t>
+  </si>
+  <si>
+    <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+  </si>
+  <si>
+    <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
+  </si>
+  <si>
     <t>IND: India</t>
   </si>
   <si>
-    <t>Data extracted on 21 Aug 2020 19:57 UTC (GMT) from OECD.Stat</t>
+    <t>US Employment</t>
+  </si>
+  <si>
+    <t>US Employee Compensation</t>
+  </si>
+  <si>
+    <t>US Compensation per Employee</t>
+  </si>
+  <si>
+    <t>US Ratio applied to IND employment</t>
+  </si>
+  <si>
+    <t>Unit: jobs</t>
+  </si>
+  <si>
+    <t>USA: United States</t>
+  </si>
+  <si>
+    <t>Variables io-model/BEbIC and io-model/BECbIC in India EPS 3.0 and US EPS 3.0 versions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,12 +484,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +519,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,9 +600,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -565,45 +612,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -622,15 +647,48 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{3A76C72D-665F-4D15-988B-50837DA891B2}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,82 +965,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="10">
         <v>0.9686815713640794</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B21" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{1510A64D-F966-4BB3-95B3-F0B812693CC0}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -990,791 +1076,798 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F22C10-5578-4AF6-AA80-6BCFB0724850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="27.3984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="e">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:38" ht="22.9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+    </row>
+    <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="28"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="28"/>
+    </row>
+    <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="14"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="17"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="17"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="28"/>
+    </row>
+    <row r="7" spans="1:38" ht="97.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="17"/>
-    </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="I7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="L7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="M7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="N7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="O7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="P7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="Q7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="R7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="S7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="T7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="U7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="20" t="s">
+      <c r="V7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="W7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="X7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="X7" s="20" t="s">
+      <c r="Y7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Z7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="AA7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AB7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="20" t="s">
+      <c r="AC7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="20" t="s">
+      <c r="AD7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD7" s="20" t="s">
+      <c r="AE7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AF7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AF7" s="20" t="s">
+      <c r="AG7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG7" s="20" t="s">
+      <c r="AH7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AH7" s="20" t="s">
+      <c r="AI7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AI7" s="20" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AJ7" s="20" t="s">
+      <c r="AK7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AK7" s="20" t="s">
+      <c r="AL7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AL7" s="20" t="s">
+    </row>
+    <row r="8" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL8" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18">
+        <v>51711.035000000003</v>
+      </c>
+      <c r="D9" s="18">
+        <v>7097.5749999999998</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1872.6089999999999</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4911.6509999999998</v>
+      </c>
+      <c r="G9" s="18">
+        <v>8065.1040000000003</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11673.767</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1418.434</v>
+      </c>
+      <c r="J9" s="18">
+        <v>2184.1729999999998</v>
+      </c>
+      <c r="K9" s="18">
+        <v>7743.027</v>
+      </c>
+      <c r="L9" s="18">
+        <v>12279.773999999999</v>
+      </c>
+      <c r="M9" s="18">
+        <v>3153.924</v>
+      </c>
+      <c r="N9" s="18">
+        <v>4797.2039999999997</v>
+      </c>
+      <c r="O9" s="18">
+        <v>5477.0730000000003</v>
+      </c>
+      <c r="P9" s="18">
+        <v>3737.183</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>1986.0350000000001</v>
+      </c>
+      <c r="R9" s="18">
+        <v>3784.7759999999998</v>
+      </c>
+      <c r="S9" s="18">
+        <v>5009.9120000000003</v>
+      </c>
+      <c r="T9" s="18">
+        <v>13551.85</v>
+      </c>
+      <c r="U9" s="18">
+        <v>7886.7330000000002</v>
+      </c>
+      <c r="V9" s="18">
+        <v>3069.5030000000002</v>
+      </c>
+      <c r="W9" s="18">
+        <v>17751.912</v>
+      </c>
+      <c r="X9" s="18">
+        <v>100199.875</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>31329.510999999999</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>33075.974000000002</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>3027.0430000000001</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>4794.0879999999997</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>7910.0050000000001</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>19660.455000000002</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>34459.480000000003</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>35406.620000000003</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>16517.482</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>92507.683999999994</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>45370.26</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>18830.098999999998</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>23635.012999999999</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>3498.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="24">
-        <v>51711.035000000003</v>
-      </c>
-      <c r="D9" s="24">
-        <v>7097.5749999999998</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1872.6089999999999</v>
-      </c>
-      <c r="F9" s="24">
-        <v>4911.6509999999998</v>
-      </c>
-      <c r="G9" s="24">
-        <v>8065.1040000000003</v>
-      </c>
-      <c r="H9" s="24">
-        <v>11673.767</v>
-      </c>
-      <c r="I9" s="24">
-        <v>1418.434</v>
-      </c>
-      <c r="J9" s="24">
-        <v>2184.1729999999998</v>
-      </c>
-      <c r="K9" s="24">
-        <v>7743.027</v>
-      </c>
-      <c r="L9" s="24">
-        <v>12279.773999999999</v>
-      </c>
-      <c r="M9" s="24">
-        <v>3153.924</v>
-      </c>
-      <c r="N9" s="24">
-        <v>4797.2039999999997</v>
-      </c>
-      <c r="O9" s="24">
-        <v>5477.0730000000003</v>
-      </c>
-      <c r="P9" s="24">
-        <v>3737.183</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>1986.0350000000001</v>
-      </c>
-      <c r="R9" s="24">
-        <v>3784.7759999999998</v>
-      </c>
-      <c r="S9" s="24">
-        <v>5009.9120000000003</v>
-      </c>
-      <c r="T9" s="24">
-        <v>13551.85</v>
-      </c>
-      <c r="U9" s="24">
-        <v>7886.7330000000002</v>
-      </c>
-      <c r="V9" s="24">
-        <v>3069.5030000000002</v>
-      </c>
-      <c r="W9" s="24">
-        <v>17751.912</v>
-      </c>
-      <c r="X9" s="24">
-        <v>100199.875</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>31329.510999999999</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>33075.974000000002</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>3027.0430000000001</v>
-      </c>
-      <c r="AB9" s="24">
-        <v>4794.0879999999997</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>7910.0050000000001</v>
-      </c>
-      <c r="AD9" s="24">
-        <v>19660.455000000002</v>
-      </c>
-      <c r="AE9" s="24">
-        <v>34459.480000000003</v>
-      </c>
-      <c r="AF9" s="24">
-        <v>35406.620000000003</v>
-      </c>
-      <c r="AG9" s="24">
-        <v>16517.482</v>
-      </c>
-      <c r="AH9" s="24">
-        <v>92507.683999999994</v>
-      </c>
-      <c r="AI9" s="24">
-        <v>45370.26</v>
-      </c>
-      <c r="AJ9" s="24">
-        <v>18830.098999999998</v>
-      </c>
-      <c r="AK9" s="24">
-        <v>23635.012999999999</v>
-      </c>
-      <c r="AL9" s="24">
-        <v>3498.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19">
+        <v>7036.0770000000002</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1971.2159999999999</v>
+      </c>
+      <c r="E10" s="19">
+        <v>416.04500000000002</v>
+      </c>
+      <c r="F10" s="19">
+        <v>609.78800000000001</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2035.51</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1242.8810000000001</v>
+      </c>
+      <c r="I10" s="19">
+        <v>173.256</v>
+      </c>
+      <c r="J10" s="19">
+        <v>182.81899999999999</v>
+      </c>
+      <c r="K10" s="19">
+        <v>3526.886</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1265.373</v>
+      </c>
+      <c r="M10" s="19">
+        <v>381.65499999999997</v>
+      </c>
+      <c r="N10" s="19">
+        <v>643.654</v>
+      </c>
+      <c r="O10" s="19">
+        <v>746.54399999999998</v>
+      </c>
+      <c r="P10" s="19">
+        <v>551.63699999999994</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>202.89699999999999</v>
+      </c>
+      <c r="R10" s="19">
+        <v>543.46900000000005</v>
+      </c>
+      <c r="S10" s="19">
+        <v>629.36500000000001</v>
+      </c>
+      <c r="T10" s="19">
+        <v>995.78300000000002</v>
+      </c>
+      <c r="U10" s="19">
+        <v>310.077</v>
+      </c>
+      <c r="V10" s="19">
+        <v>261.15600000000001</v>
+      </c>
+      <c r="W10" s="19">
+        <v>2186.752</v>
+      </c>
+      <c r="X10" s="19">
+        <v>3601.1179999999999</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>7030.1610000000001</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>2167.0500000000002</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>547.61199999999997</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>226.70400000000001</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>815.25699999999995</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>1981.4079999999999</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>4163.6109999999999</v>
+      </c>
+      <c r="AF10" s="19">
+        <v>8626.5360000000001</v>
+      </c>
+      <c r="AG10" s="19">
+        <v>1582.606</v>
+      </c>
+      <c r="AH10" s="19">
+        <v>855.70699999999999</v>
+      </c>
+      <c r="AI10" s="19">
+        <v>1114.4369999999999</v>
+      </c>
+      <c r="AJ10" s="19">
+        <v>411.08499999999998</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>1042.144</v>
+      </c>
+      <c r="AL10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="25">
-        <v>7036.0770000000002</v>
-      </c>
-      <c r="D10" s="25">
-        <v>1971.2159999999999</v>
-      </c>
-      <c r="E10" s="25">
-        <v>416.04500000000002</v>
-      </c>
-      <c r="F10" s="25">
-        <v>609.78800000000001</v>
-      </c>
-      <c r="G10" s="25">
-        <v>2035.51</v>
-      </c>
-      <c r="H10" s="25">
-        <v>1242.8810000000001</v>
-      </c>
-      <c r="I10" s="25">
-        <v>173.256</v>
-      </c>
-      <c r="J10" s="25">
-        <v>182.81899999999999</v>
-      </c>
-      <c r="K10" s="25">
-        <v>3526.886</v>
-      </c>
-      <c r="L10" s="25">
-        <v>1265.373</v>
-      </c>
-      <c r="M10" s="25">
-        <v>381.65499999999997</v>
-      </c>
-      <c r="N10" s="25">
-        <v>643.654</v>
-      </c>
-      <c r="O10" s="25">
-        <v>746.54399999999998</v>
-      </c>
-      <c r="P10" s="25">
-        <v>551.63699999999994</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>202.89699999999999</v>
-      </c>
-      <c r="R10" s="25">
-        <v>543.46900000000005</v>
-      </c>
-      <c r="S10" s="25">
-        <v>629.36500000000001</v>
-      </c>
-      <c r="T10" s="25">
-        <v>995.78300000000002</v>
-      </c>
-      <c r="U10" s="25">
-        <v>310.077</v>
-      </c>
-      <c r="V10" s="25">
-        <v>261.15600000000001</v>
-      </c>
-      <c r="W10" s="25">
-        <v>2186.752</v>
-      </c>
-      <c r="X10" s="25">
-        <v>3601.1179999999999</v>
-      </c>
-      <c r="Y10" s="25">
-        <v>7030.1610000000001</v>
-      </c>
-      <c r="Z10" s="25">
-        <v>2167.0500000000002</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>547.61199999999997</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>226.70400000000001</v>
-      </c>
-      <c r="AC10" s="25">
-        <v>815.25699999999995</v>
-      </c>
-      <c r="AD10" s="25">
-        <v>1981.4079999999999</v>
-      </c>
-      <c r="AE10" s="25">
-        <v>4163.6109999999999</v>
-      </c>
-      <c r="AF10" s="25">
-        <v>8626.5360000000001</v>
-      </c>
-      <c r="AG10" s="25">
-        <v>1582.606</v>
-      </c>
-      <c r="AH10" s="25">
-        <v>855.70699999999999</v>
-      </c>
-      <c r="AI10" s="25">
-        <v>1114.4369999999999</v>
-      </c>
-      <c r="AJ10" s="25">
-        <v>411.08499999999998</v>
-      </c>
-      <c r="AK10" s="25">
-        <v>1042.144</v>
-      </c>
-      <c r="AL10" s="25">
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18">
+        <v>280209.58799999999</v>
+      </c>
+      <c r="D11" s="18">
+        <v>19026.11</v>
+      </c>
+      <c r="E11" s="18">
+        <v>5123.8459999999995</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4852.9610000000002</v>
+      </c>
+      <c r="G11" s="18">
+        <v>21062.786</v>
+      </c>
+      <c r="H11" s="18">
+        <v>32190.553</v>
+      </c>
+      <c r="I11" s="18">
+        <v>3889.11</v>
+      </c>
+      <c r="J11" s="18">
+        <v>6072.6080000000002</v>
+      </c>
+      <c r="K11" s="18">
+        <v>18648.987000000001</v>
+      </c>
+      <c r="L11" s="18">
+        <v>33903.652999999998</v>
+      </c>
+      <c r="M11" s="18">
+        <v>8651.1209999999992</v>
+      </c>
+      <c r="N11" s="18">
+        <v>13095.441999999999</v>
+      </c>
+      <c r="O11" s="18">
+        <v>14939.683000000001</v>
+      </c>
+      <c r="P11" s="18">
+        <v>10151.58</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>5485.0680000000002</v>
+      </c>
+      <c r="R11" s="18">
+        <v>10296.054</v>
+      </c>
+      <c r="S11" s="18">
+        <v>13718.923000000001</v>
+      </c>
+      <c r="T11" s="18">
+        <v>8761.7669999999998</v>
+      </c>
+      <c r="U11" s="18">
+        <v>3407.69</v>
+      </c>
+      <c r="V11" s="18">
+        <v>8529.84</v>
+      </c>
+      <c r="W11" s="18">
+        <v>31388.135999999999</v>
+      </c>
+      <c r="X11" s="18">
+        <v>47340.707000000002</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>160401.32800000001</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>64212.076000000001</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>15629.545</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>2507.1089999999999</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>17145.738000000001</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>58015.237000000001</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>72148.509000000005</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>99421.744000000006</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>48822.811999999998</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>18076.109</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>24757.803</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>10326.716</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>12435.643</v>
+      </c>
+      <c r="AL11" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="24">
-        <v>280209.58799999999</v>
-      </c>
-      <c r="D11" s="24">
-        <v>19026.11</v>
-      </c>
-      <c r="E11" s="24">
-        <v>5123.8459999999995</v>
-      </c>
-      <c r="F11" s="24">
-        <v>4852.9610000000002</v>
-      </c>
-      <c r="G11" s="24">
-        <v>21062.786</v>
-      </c>
-      <c r="H11" s="24">
-        <v>32190.553</v>
-      </c>
-      <c r="I11" s="24">
-        <v>3889.11</v>
-      </c>
-      <c r="J11" s="24">
-        <v>6072.6080000000002</v>
-      </c>
-      <c r="K11" s="24">
-        <v>18648.987000000001</v>
-      </c>
-      <c r="L11" s="24">
-        <v>33903.652999999998</v>
-      </c>
-      <c r="M11" s="24">
-        <v>8651.1209999999992</v>
-      </c>
-      <c r="N11" s="24">
-        <v>13095.441999999999</v>
-      </c>
-      <c r="O11" s="24">
-        <v>14939.683000000001</v>
-      </c>
-      <c r="P11" s="24">
-        <v>10151.58</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>5485.0680000000002</v>
-      </c>
-      <c r="R11" s="24">
-        <v>10296.054</v>
-      </c>
-      <c r="S11" s="24">
-        <v>13718.923000000001</v>
-      </c>
-      <c r="T11" s="24">
-        <v>8761.7669999999998</v>
-      </c>
-      <c r="U11" s="24">
-        <v>3407.69</v>
-      </c>
-      <c r="V11" s="24">
-        <v>8529.84</v>
-      </c>
-      <c r="W11" s="24">
-        <v>31388.135999999999</v>
-      </c>
-      <c r="X11" s="24">
-        <v>47340.707000000002</v>
-      </c>
-      <c r="Y11" s="24">
-        <v>160401.32800000001</v>
-      </c>
-      <c r="Z11" s="24">
-        <v>64212.076000000001</v>
-      </c>
-      <c r="AA11" s="24">
-        <v>15629.545</v>
-      </c>
-      <c r="AB11" s="24">
-        <v>2507.1089999999999</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>17145.738000000001</v>
-      </c>
-      <c r="AD11" s="24">
-        <v>58015.237000000001</v>
-      </c>
-      <c r="AE11" s="24">
-        <v>72148.509000000005</v>
-      </c>
-      <c r="AF11" s="24">
-        <v>99421.744000000006</v>
-      </c>
-      <c r="AG11" s="24">
-        <v>48822.811999999998</v>
-      </c>
-      <c r="AH11" s="24">
-        <v>18076.109</v>
-      </c>
-      <c r="AI11" s="24">
-        <v>24757.803</v>
-      </c>
-      <c r="AJ11" s="24">
-        <v>10326.716</v>
-      </c>
-      <c r="AK11" s="24">
-        <v>12435.643</v>
-      </c>
-      <c r="AL11" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1790,9 +1883,9 @@
     <mergeCell ref="C5:AL5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D218819D-9034-4043-BC63-13C378904998}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A8E788DF-74BC-4008-9A0B-73D7EFB4DB58}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{AC50B72A-92F9-46D9-8251-E3188D25C62A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1800,24 +1893,869 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+    <col min="2" max="38" width="10.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>224863500</v>
+      </c>
+      <c r="C2">
+        <v>870800</v>
+      </c>
+      <c r="D2">
+        <v>1780700</v>
+      </c>
+      <c r="E2">
+        <v>46400</v>
+      </c>
+      <c r="F2">
+        <v>9028000</v>
+      </c>
+      <c r="G2">
+        <v>13949800</v>
+      </c>
+      <c r="H2">
+        <v>3089100</v>
+      </c>
+      <c r="I2">
+        <v>1033900.0000000001</v>
+      </c>
+      <c r="J2">
+        <v>171800</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1364335.2832438238</v>
+      </c>
+      <c r="L2" s="20">
+        <v>212864.7167561762</v>
+      </c>
+      <c r="M2">
+        <v>800100</v>
+      </c>
+      <c r="N2">
+        <v>4634100</v>
+      </c>
+      <c r="O2">
+        <v>2140400</v>
+      </c>
+      <c r="P2">
+        <v>3219700</v>
+      </c>
+      <c r="Q2">
+        <v>399300</v>
+      </c>
+      <c r="R2">
+        <v>787400</v>
+      </c>
+      <c r="S2">
+        <v>707700</v>
+      </c>
+      <c r="T2">
+        <v>291600</v>
+      </c>
+      <c r="U2">
+        <v>622900</v>
+      </c>
+      <c r="V2">
+        <v>11761600</v>
+      </c>
+      <c r="W2">
+        <v>2704500</v>
+      </c>
+      <c r="X2">
+        <v>48199800</v>
+      </c>
+      <c r="Y2">
+        <v>34636300</v>
+      </c>
+      <c r="Z2">
+        <v>19576600</v>
+      </c>
+      <c r="AA2">
+        <v>5096500</v>
+      </c>
+      <c r="AB2">
+        <v>635000</v>
+      </c>
+      <c r="AC2">
+        <v>979400</v>
+      </c>
+      <c r="AD2">
+        <v>2304100</v>
+      </c>
+      <c r="AE2">
+        <v>4160300</v>
+      </c>
+      <c r="AF2">
+        <v>518500</v>
+      </c>
+      <c r="AG2">
+        <v>11896000</v>
+      </c>
+      <c r="AH2">
+        <v>11408800</v>
+      </c>
+      <c r="AI2">
+        <v>15056800</v>
+      </c>
+      <c r="AJ2">
+        <v>6618800</v>
+      </c>
+      <c r="AK2">
+        <v>31208500</v>
+      </c>
+      <c r="AL2">
+        <v>5924700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AL11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+    <col min="2" max="38" width="10.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>2253000</v>
+      </c>
+      <c r="C2">
+        <v>262600</v>
+      </c>
+      <c r="D2">
+        <v>135400</v>
+      </c>
+      <c r="E2">
+        <v>373000</v>
+      </c>
+      <c r="F2">
+        <v>1783000</v>
+      </c>
+      <c r="G2">
+        <v>442000</v>
+      </c>
+      <c r="H2">
+        <v>399000</v>
+      </c>
+      <c r="I2">
+        <v>842000</v>
+      </c>
+      <c r="J2">
+        <v>111000</v>
+      </c>
+      <c r="K2" s="12">
+        <v>534000</v>
+      </c>
+      <c r="L2" s="12">
+        <v>286000</v>
+      </c>
+      <c r="M2">
+        <v>690000</v>
+      </c>
+      <c r="N2">
+        <v>412000</v>
+      </c>
+      <c r="O2">
+        <v>395000</v>
+      </c>
+      <c r="P2">
+        <v>1483000</v>
+      </c>
+      <c r="Q2">
+        <v>1058000</v>
+      </c>
+      <c r="R2">
+        <v>382000</v>
+      </c>
+      <c r="S2">
+        <v>1126000</v>
+      </c>
+      <c r="T2">
+        <v>922000</v>
+      </c>
+      <c r="U2">
+        <v>695000</v>
+      </c>
+      <c r="V2">
+        <v>1355500</v>
+      </c>
+      <c r="W2">
+        <v>975000</v>
+      </c>
+      <c r="X2">
+        <v>8240000</v>
+      </c>
+      <c r="Y2">
+        <v>23893300</v>
+      </c>
+      <c r="Z2">
+        <v>5988000</v>
+      </c>
+      <c r="AA2">
+        <v>13295000</v>
+      </c>
+      <c r="AB2">
+        <v>1686900</v>
+      </c>
+      <c r="AC2">
+        <v>823100</v>
+      </c>
+      <c r="AD2">
+        <v>2455000</v>
+      </c>
+      <c r="AE2">
+        <v>6300000</v>
+      </c>
+      <c r="AF2">
+        <v>1958000</v>
+      </c>
+      <c r="AG2">
+        <v>19863000</v>
+      </c>
+      <c r="AH2">
+        <v>13365000</v>
+      </c>
+      <c r="AI2">
+        <v>14114000</v>
+      </c>
+      <c r="AJ2">
+        <v>19522000</v>
+      </c>
+      <c r="AK2">
+        <v>8780200</v>
+      </c>
+      <c r="AL2">
+        <v>329100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AL11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="38" width="10.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>54016507157.360023</v>
+      </c>
+      <c r="C2">
+        <v>42087940459.502907</v>
+      </c>
+      <c r="D2">
+        <v>13192667088.040098</v>
+      </c>
+      <c r="E2">
+        <v>31699803162.920803</v>
+      </c>
+      <c r="F2">
+        <v>104565156568.91278</v>
+      </c>
+      <c r="G2">
+        <v>19249581096.571133</v>
+      </c>
+      <c r="H2">
+        <v>19084921697.025951</v>
+      </c>
+      <c r="I2">
+        <v>53950867356.721252</v>
+      </c>
+      <c r="J2">
+        <v>17895825352.232121</v>
+      </c>
+      <c r="K2" s="12">
+        <v>53198480153.393837</v>
+      </c>
+      <c r="L2" s="12">
+        <v>44694478152.533585</v>
+      </c>
+      <c r="M2">
+        <v>48035143530.62439</v>
+      </c>
+      <c r="N2">
+        <v>27963696179.008259</v>
+      </c>
+      <c r="O2">
+        <v>30535090470.641346</v>
+      </c>
+      <c r="P2">
+        <v>93149679188.412643</v>
+      </c>
+      <c r="Q2">
+        <v>133807960921.68916</v>
+      </c>
+      <c r="R2">
+        <v>33053576343.528103</v>
+      </c>
+      <c r="S2">
+        <v>87657629558.546432</v>
+      </c>
+      <c r="T2">
+        <v>66099176562.997589</v>
+      </c>
+      <c r="U2">
+        <v>76755469135.572556</v>
+      </c>
+      <c r="V2">
+        <v>70758876865.8535</v>
+      </c>
+      <c r="W2">
+        <v>99649765984.524323</v>
+      </c>
+      <c r="X2">
+        <v>443551633131.10876</v>
+      </c>
+      <c r="Y2">
+        <v>1092867487465.397</v>
+      </c>
+      <c r="Z2">
+        <v>358730084291.4812</v>
+      </c>
+      <c r="AA2">
+        <v>330227698478.54797</v>
+      </c>
+      <c r="AB2">
+        <v>197642858841.8468</v>
+      </c>
+      <c r="AC2">
+        <v>83292175969.808075</v>
+      </c>
+      <c r="AD2">
+        <v>286458782608.58081</v>
+      </c>
+      <c r="AE2">
+        <v>726862913582.39282</v>
+      </c>
+      <c r="AF2">
+        <v>99124994367.416687</v>
+      </c>
+      <c r="AG2">
+        <v>1320219395505.2676</v>
+      </c>
+      <c r="AH2">
+        <v>1182871631888.7844</v>
+      </c>
+      <c r="AI2">
+        <v>838587376723.22241</v>
+      </c>
+      <c r="AJ2">
+        <v>1041787952118.6583</v>
+      </c>
+      <c r="AK2">
+        <v>309954904850.23438</v>
+      </c>
+      <c r="AL2">
+        <v>20682998307.294415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.46484375" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="14" width="14.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="23">
+        <f>'US BEbIC'!K2</f>
+        <v>534000</v>
+      </c>
+      <c r="D2" s="23">
+        <f>'US BEbIC'!L2</f>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <f>'US BECbIC'!K2</f>
+        <v>53198480153.393837</v>
+      </c>
+      <c r="D3">
+        <f>'US BECbIC'!L2</f>
+        <v>44694478152.533585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="21">
+        <f>C3/C2</f>
+        <v>99622.622010100822</v>
+      </c>
+      <c r="D4" s="21">
+        <f>D3/D2</f>
+        <v>156274.39913473281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <f>'Chem Pharma Split'!C4*'IND BEbIC'!K2</f>
+        <v>135918658217.6433</v>
+      </c>
+      <c r="D5">
+        <f>D4*'IND BEbIC'!L2</f>
+        <v>33265305708.056526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection sqref="A1:AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="38" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1847,234 +2785,241 @@
       <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>90</v>
       </c>
       <c r="B2">
-        <f>OECD_VAL!C9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!C9*10^6*About!$A$21</f>
         <v>50091526640.66291</v>
       </c>
       <c r="C2">
-        <f>OECD_VAL!D9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!D9*10^6*About!$A$21</f>
         <v>6875290103.8744059</v>
       </c>
       <c r="D2">
-        <f>OECD_VAL!E9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!E9*10^6*About!$A$21</f>
         <v>1813961828.6705174</v>
       </c>
       <c r="E2">
-        <f>OECD_VAL!F9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!F9*10^6*About!$A$21</f>
         <v>4757825808.6719522</v>
       </c>
       <c r="F2">
-        <f>OECD_VAL!G9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!G9*10^6*About!$A$21</f>
         <v>7812517615.9347219</v>
       </c>
       <c r="G2">
-        <f>OECD_VAL!H9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!H9*10^6*About!$A$21</f>
         <v>11308162961.298136</v>
       </c>
       <c r="H2">
-        <f>OECD_VAL!I9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!I9*10^6*About!$A$21</f>
         <v>1374010875.9962366</v>
       </c>
       <c r="I2">
-        <f>OECD_VAL!J9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!J9*10^6*About!$A$21</f>
         <v>2115768133.7709954</v>
       </c>
       <c r="J2">
-        <f>OECD_VAL!K9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!K9*10^6*About!$A$21</f>
         <v>7500527561.474494</v>
       </c>
-      <c r="K2">
-        <f>OECD_VAL!L9*10^6*About!$A$14</f>
-        <v>11895190774.315767</v>
-      </c>
-      <c r="L2">
-        <f>OECD_VAL!M9*10^6*About!$A$14</f>
+      <c r="K2" s="12">
+        <f>'OECD VAL'!L9*10^6*About!$A$21*('Chem Pharma Split'!C5/SUM('Chem Pharma Split'!C5:D5))</f>
+        <v>9556333424.1177006</v>
+      </c>
+      <c r="L2" s="12">
+        <f>'OECD VAL'!L9*10^6*About!$A$21*('Chem Pharma Split'!D5/SUM('Chem Pharma Split'!C5:D5))</f>
+        <v>2338857350.1980667</v>
+      </c>
+      <c r="M2">
+        <f>'OECD VAL'!M9*10^6*About!$A$21</f>
         <v>3055148056.2828827</v>
       </c>
-      <c r="M2">
-        <f>OECD_VAL!N9*10^6*About!$A$14</f>
+      <c r="N2">
+        <f>'OECD VAL'!N9*10^6*About!$A$21</f>
         <v>4646963108.8740473</v>
       </c>
-      <c r="N2">
-        <f>OECD_VAL!O9*10^6*About!$A$14</f>
+      <c r="O2">
+        <f>'OECD VAL'!O9*10^6*About!$A$21</f>
         <v>5305539680.1157722</v>
       </c>
-      <c r="O2">
-        <f>OECD_VAL!P9*10^6*About!$A$14</f>
+      <c r="P2">
+        <f>'OECD VAL'!P9*10^6*About!$A$21</f>
         <v>3620140300.9151244</v>
       </c>
-      <c r="P2">
-        <f>OECD_VAL!Q9*10^6*About!$A$14</f>
+      <c r="Q2">
+        <f>'OECD VAL'!Q9*10^6*About!$A$21</f>
         <v>1923835504.5840595</v>
       </c>
-      <c r="Q2">
-        <f>OECD_VAL!R9*10^6*About!$A$14</f>
+      <c r="R2">
+        <f>'OECD VAL'!R9*10^6*About!$A$21</f>
         <v>3666242762.9410548</v>
       </c>
-      <c r="R2">
-        <f>OECD_VAL!S9*10^6*About!$A$14</f>
+      <c r="S2">
+        <f>'OECD VAL'!S9*10^6*About!$A$21</f>
         <v>4853009428.5557575</v>
       </c>
-      <c r="S2">
-        <f>OECD_VAL!T9*10^6*About!$A$14</f>
+      <c r="T2">
+        <f>'OECD VAL'!T9*10^6*About!$A$21</f>
         <v>13127427352.890299</v>
       </c>
-      <c r="T2">
-        <f>OECD_VAL!U9*10^6*About!$A$14</f>
+      <c r="U2">
+        <f>'OECD VAL'!U9*10^6*About!$A$21</f>
         <v>7639732915.3689404</v>
       </c>
-      <c r="U2">
-        <f>OECD_VAL!V9*10^6*About!$A$14</f>
+      <c r="V2">
+        <f>'OECD VAL'!V9*10^6*About!$A$21</f>
         <v>2973370989.346756</v>
       </c>
-      <c r="V2">
-        <f>OECD_VAL!W9*10^6*About!$A$14</f>
+      <c r="W2">
+        <f>'OECD VAL'!W9*10^6*About!$A$21</f>
         <v>17195950010.876858</v>
       </c>
-      <c r="W2">
-        <f>OECD_VAL!X9*10^6*About!$A$14</f>
+      <c r="X2">
+        <f>'OECD VAL'!X9*10^6*About!$A$21</f>
         <v>97061772365.484329</v>
       </c>
-      <c r="X2">
-        <f>OECD_VAL!Y9*10^6*About!$A$14</f>
+      <c r="Y2">
+        <f>'OECD VAL'!Y9*10^6*About!$A$21</f>
         <v>30348319945.54821</v>
       </c>
-      <c r="Y2">
-        <f>OECD_VAL!Z9*10^6*About!$A$14</f>
+      <c r="Z2">
+        <f>'OECD VAL'!Z9*10^6*About!$A$21</f>
         <v>32040086468.717438</v>
       </c>
-      <c r="Z2">
-        <f>OECD_VAL!AA9*10^6*About!$A$14</f>
+      <c r="AA2">
+        <f>'OECD VAL'!AA9*10^6*About!$A$21</f>
         <v>2932240769.8266368</v>
       </c>
-      <c r="AA2">
-        <f>OECD_VAL!AB9*10^6*About!$A$14</f>
+      <c r="AB2">
+        <f>'OECD VAL'!AB9*10^6*About!$A$21</f>
         <v>4643944697.0976763</v>
       </c>
-      <c r="AB2">
-        <f>OECD_VAL!AC9*10^6*About!$A$14</f>
+      <c r="AC2">
+        <f>'OECD VAL'!AC9*10^6*About!$A$21</f>
         <v>7662276072.8977251</v>
       </c>
-      <c r="AC2">
-        <f>OECD_VAL!AD9*10^6*About!$A$14</f>
+      <c r="AD2">
+        <f>'OECD VAL'!AD9*10^6*About!$A$21</f>
         <v>19044720443.132771</v>
       </c>
-      <c r="AD2">
-        <f>OECD_VAL!AE9*10^6*About!$A$14</f>
+      <c r="AE2">
+        <f>'OECD VAL'!AE9*10^6*About!$A$21</f>
         <v>33380263234.789066</v>
       </c>
-      <c r="AE2">
-        <f>OECD_VAL!AF9*10^6*About!$A$14</f>
+      <c r="AF2">
+        <f>'OECD VAL'!AF9*10^6*About!$A$21</f>
         <v>34297740298.29084</v>
       </c>
-      <c r="AF2">
-        <f>OECD_VAL!AG9*10^6*About!$A$14</f>
+      <c r="AG2">
+        <f>'OECD VAL'!AG9*10^6*About!$A$21</f>
         <v>16000180418.737896</v>
       </c>
-      <c r="AG2">
-        <f>OECD_VAL!AH9*10^6*About!$A$14</f>
+      <c r="AH2">
+        <f>'OECD VAL'!AH9*10^6*About!$A$21</f>
         <v>89610488700.371704</v>
       </c>
-      <c r="AH2">
-        <f>OECD_VAL!AI9*10^6*About!$A$14</f>
+      <c r="AI2">
+        <f>'OECD VAL'!AI9*10^6*About!$A$21</f>
         <v>43949334749.996834</v>
       </c>
-      <c r="AI2">
-        <f>OECD_VAL!AJ9*10^6*About!$A$14</f>
+      <c r="AJ2">
+        <f>'OECD VAL'!AJ9*10^6*About!$A$21</f>
         <v>18240369888.261181</v>
       </c>
-      <c r="AJ2">
-        <f>OECD_VAL!AK9*10^6*About!$A$14</f>
+      <c r="AK2">
+        <f>'OECD VAL'!AK9*10^6*About!$A$21</f>
         <v>22894801532.050446</v>
       </c>
-      <c r="AK2">
-        <f>OECD_VAL!AL9*10^6*About!$A$14</f>
+      <c r="AL2">
+        <f>'OECD VAL'!AL9*10^6*About!$A$21</f>
         <v>3388738741.1029592</v>
       </c>
     </row>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\io-model\BECbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,10 +17,10 @@
     <sheet name="IND BEbIC" sheetId="10" r:id="rId3"/>
     <sheet name="US BEbIC" sheetId="11" r:id="rId4"/>
     <sheet name="US BECbIC" sheetId="12" r:id="rId5"/>
-    <sheet name="Chem Pharma Split" sheetId="8" r:id="rId6"/>
+    <sheet name="ISIC Split" sheetId="8" r:id="rId6"/>
     <sheet name="BECbIC" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="116">
   <si>
     <t>Source:</t>
   </si>
@@ -70,9 +70,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -352,12 +349,6 @@
     <t>Chemicals and Pharmaceuticals Industries</t>
   </si>
   <si>
-    <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
-  </si>
-  <si>
-    <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
-  </si>
-  <si>
     <t>IND: India</t>
   </si>
   <si>
@@ -376,10 +367,25 @@
     <t>Unit: jobs</t>
   </si>
   <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>Variables io-model/BEbIC and io-model/BECbIC in India EPS 3.1.2 and US EPS 3.1.2 versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We divide up coal and oil/gas (ISIC 05T06) into separate coal mining (ISIC 05) and oil/gas extraction (ISIC 06) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">industries, as well as chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20) and pharmaceuticals </t>
+  </si>
+  <si>
+    <t>(ISIC 21) industries using different data sources.</t>
+  </si>
+  <si>
     <t>USA: United States</t>
-  </si>
-  <si>
-    <t>Variables io-model/BEbIC and io-model/BECbIC in India EPS 3.0 and US EPS 3.0 versions</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -653,6 +659,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -966,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -979,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -987,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1002,27 +1011,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -1035,35 +1044,40 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="10">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="B22" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="10">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1108,302 +1122,302 @@
     </row>
     <row r="2" spans="1:38" ht="22.9" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+    </row>
+    <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="31"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="31"/>
+    </row>
+    <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-    </row>
-    <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="28"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="28"/>
-    </row>
-    <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31"/>
+    </row>
+    <row r="7" spans="1:38" ht="97.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="28"/>
-    </row>
-    <row r="7" spans="1:38" ht="97.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="S7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="T7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="X7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Z7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AB7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AC7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AD7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AE7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AE7" s="14" t="s">
+      <c r="AF7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="14" t="s">
+      <c r="AG7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AH7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="14" t="s">
+      <c r="AI7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AI7" s="14" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AJ7" s="14" t="s">
+      <c r="AK7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AK7" s="14" t="s">
+      <c r="AL7" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>8</v>
@@ -1519,7 +1533,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
@@ -1635,7 +1649,7 @@
     </row>
     <row r="10" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>8</v>
@@ -1751,7 +1765,7 @@
     </row>
     <row r="11" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>8</v>
@@ -1867,7 +1881,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1911,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
@@ -1909,235 +1923,241 @@
     <col min="2" max="38" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>224863500</v>
       </c>
-      <c r="C2">
-        <v>870800</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="12">
+        <v>767099.64935738023</v>
+      </c>
+      <c r="D2" s="12">
+        <v>103700.35064261973</v>
+      </c>
+      <c r="E2">
         <v>1780700</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>46400</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9028000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>13949800</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3089100</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1033900.0000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>171800</v>
       </c>
-      <c r="K2" s="20">
-        <v>1364335.2832438238</v>
-      </c>
       <c r="L2" s="20">
-        <v>212864.7167561762</v>
-      </c>
-      <c r="M2">
+        <v>1246376.463201894</v>
+      </c>
+      <c r="M2" s="20">
+        <v>330823.5367981061</v>
+      </c>
+      <c r="N2">
         <v>800100</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4634100</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2140400</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3219700</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>399300</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>787400</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>707700</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>291600</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>622900</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>11761600</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2704500</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>48199800</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>34636300</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>19576600</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>5096500</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>635000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>979400</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2304100</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4160300</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>518500</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>11896000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>11408800</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>15056800</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>6618800</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>31208500</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5924700</v>
       </c>
     </row>
@@ -2152,10 +2172,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AL11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2164,235 +2184,241 @@
     <col min="2" max="38" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>2253000</v>
       </c>
-      <c r="C2">
-        <v>262600</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="20">
+        <v>68011.510791366905</v>
+      </c>
+      <c r="D2" s="20">
+        <v>194588.48920863308</v>
+      </c>
+      <c r="E2">
         <v>135400</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>373000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1783000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>442000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>399000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>842000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>111000</v>
       </c>
-      <c r="K2" s="12">
+      <c r="L2" s="12">
         <v>534000</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>286000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>690000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>412000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>395000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1483000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1058000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>382000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1126000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>922000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>695000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1355500</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>975000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>8240000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>23893300</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5988000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>13295000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1686900</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>823100</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2455000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>6300000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1958000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>19863000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>13365000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>14114000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>19522000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8780200</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>329100</v>
       </c>
     </row>
@@ -2407,10 +2433,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AL11"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2419,235 +2445,241 @@
     <col min="2" max="38" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>54016507157.360023</v>
       </c>
-      <c r="C2">
-        <v>42087940459.502907</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="24">
+        <v>6293206301.826046</v>
+      </c>
+      <c r="D2" s="24">
+        <v>35794734157.676857</v>
+      </c>
+      <c r="E2">
         <v>13192667088.040098</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>31699803162.920803</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>104565156568.91278</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>19249581096.571133</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>19084921697.025951</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>53950867356.721252</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>17895825352.232121</v>
       </c>
-      <c r="K2" s="12">
+      <c r="L2" s="12">
         <v>53198480153.393837</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>44694478152.533585</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>48035143530.62439</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>27963696179.008259</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>30535090470.641346</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>93149679188.412643</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>133807960921.68916</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>33053576343.528103</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>87657629558.546432</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>66099176562.997589</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>76755469135.572556</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>70758876865.8535</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>99649765984.524323</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>443551633131.10876</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1092867487465.397</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>358730084291.4812</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>330227698478.54797</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>197642858841.8468</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>83292175969.808075</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>286458782608.58081</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>726862913582.39282</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>99124994367.416687</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1320219395505.2676</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1182871631888.7844</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>838587376723.22241</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1041787952118.6583</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>309954904850.23438</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>20682998307.294415</v>
       </c>
     </row>
@@ -2659,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2672,64 +2704,102 @@
     <col min="3" max="14" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="23">
-        <f>'US BEbIC'!K2</f>
+        <v>104</v>
+      </c>
+      <c r="C2" s="25">
+        <f>'US BEbIC'!C2</f>
+        <v>68011.510791366905</v>
+      </c>
+      <c r="D2" s="25">
+        <f>'US BEbIC'!D2</f>
+        <v>194588.48920863308</v>
+      </c>
+      <c r="F2" s="23">
+        <f>'US BEbIC'!L2</f>
         <v>534000</v>
       </c>
-      <c r="D2" s="23">
-        <f>'US BEbIC'!L2</f>
+      <c r="G2" s="23">
+        <f>'US BEbIC'!M2</f>
         <v>286000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3">
-        <f>'US BECbIC'!K2</f>
+        <v>105</v>
+      </c>
+      <c r="C3" s="26">
+        <f>'US BECbIC'!C2</f>
+        <v>6293206301.826046</v>
+      </c>
+      <c r="D3" s="26">
+        <f>'US BECbIC'!D2</f>
+        <v>35794734157.676857</v>
+      </c>
+      <c r="F3">
+        <f>'US BECbIC'!L2</f>
         <v>53198480153.393837</v>
       </c>
-      <c r="D3">
-        <f>'US BECbIC'!L2</f>
+      <c r="G3">
+        <f>'US BECbIC'!M2</f>
         <v>44694478152.533585</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="21">
         <f>C3/C2</f>
-        <v>99622.622010100822</v>
+        <v>92531.488105464625</v>
       </c>
       <c r="D4" s="21">
         <f>D3/D2</f>
+        <v>183950.93308576237</v>
+      </c>
+      <c r="F4" s="21">
+        <f>F3/F2</f>
+        <v>99622.622010100822</v>
+      </c>
+      <c r="G4" s="21">
+        <f>G3/G2</f>
         <v>156274.39913473281</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5">
-        <f>'Chem Pharma Split'!C4*'IND BEbIC'!K2</f>
-        <v>135918658217.6433</v>
+        <f>'ISIC Split'!C4*'IND BEbIC'!C2</f>
+        <v>70980872080.218506</v>
       </c>
       <c r="D5">
-        <f>D4*'IND BEbIC'!L2</f>
-        <v>33265305708.056526</v>
+        <f>'ISIC Split'!D4*'IND BEbIC'!D2</f>
+        <v>19075776262.030636</v>
+      </c>
+      <c r="F5">
+        <f>'ISIC Split'!F4*'IND BEbIC'!L2</f>
+        <v>124167291275.84862</v>
+      </c>
+      <c r="G5">
+        <f>'ISIC Split'!G4*'IND BEbIC'!M2</f>
+        <v>51699249432.751198</v>
       </c>
     </row>
   </sheetData>
@@ -2742,284 +2812,291 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="38" width="10.1328125" customWidth="1"/>
+    <col min="2" max="39" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <f>'OECD VAL'!C9*10^6*About!$A$21</f>
+        <f>'OECD VAL'!C9*10^6*About!$A$22</f>
         <v>50091526640.66291</v>
       </c>
-      <c r="C2">
-        <f>'OECD VAL'!D9*10^6*About!$A$21</f>
-        <v>6875290103.8744059</v>
-      </c>
-      <c r="D2">
-        <f>'OECD VAL'!E9*10^6*About!$A$21</f>
+      <c r="C2" s="12">
+        <f>'OECD VAL'!D9*10^6*About!$A$22*'ISIC Split'!C5/SUM('ISIC Split'!C5:D5)</f>
+        <v>5418967909.2082605</v>
+      </c>
+      <c r="D2" s="12">
+        <f>'OECD VAL'!D9*10^6*About!$A$22*'ISIC Split'!D5/SUM('ISIC Split'!C5:D5)</f>
+        <v>1456322194.6661451</v>
+      </c>
+      <c r="E2">
+        <f>'OECD VAL'!E9*10^6*About!$A$22</f>
         <v>1813961828.6705174</v>
       </c>
-      <c r="E2">
-        <f>'OECD VAL'!F9*10^6*About!$A$21</f>
+      <c r="F2">
+        <f>'OECD VAL'!F9*10^6*About!$A$22</f>
         <v>4757825808.6719522</v>
       </c>
-      <c r="F2">
-        <f>'OECD VAL'!G9*10^6*About!$A$21</f>
+      <c r="G2">
+        <f>'OECD VAL'!G9*10^6*About!$A$22</f>
         <v>7812517615.9347219</v>
       </c>
-      <c r="G2">
-        <f>'OECD VAL'!H9*10^6*About!$A$21</f>
+      <c r="H2">
+        <f>'OECD VAL'!H9*10^6*About!$A$22</f>
         <v>11308162961.298136</v>
       </c>
-      <c r="H2">
-        <f>'OECD VAL'!I9*10^6*About!$A$21</f>
+      <c r="I2">
+        <f>'OECD VAL'!I9*10^6*About!$A$22</f>
         <v>1374010875.9962366</v>
       </c>
-      <c r="I2">
-        <f>'OECD VAL'!J9*10^6*About!$A$21</f>
+      <c r="J2">
+        <f>'OECD VAL'!J9*10^6*About!$A$22</f>
         <v>2115768133.7709954</v>
       </c>
-      <c r="J2">
-        <f>'OECD VAL'!K9*10^6*About!$A$21</f>
+      <c r="K2">
+        <f>'OECD VAL'!K9*10^6*About!$A$22</f>
         <v>7500527561.474494</v>
       </c>
-      <c r="K2" s="12">
-        <f>'OECD VAL'!L9*10^6*About!$A$21*('Chem Pharma Split'!C5/SUM('Chem Pharma Split'!C5:D5))</f>
-        <v>9556333424.1177006</v>
-      </c>
       <c r="L2" s="12">
-        <f>'OECD VAL'!L9*10^6*About!$A$21*('Chem Pharma Split'!D5/SUM('Chem Pharma Split'!C5:D5))</f>
-        <v>2338857350.1980667</v>
-      </c>
-      <c r="M2">
-        <f>'OECD VAL'!M9*10^6*About!$A$21</f>
+        <f>'OECD VAL'!L9*10^6*About!$A$22*('ISIC Split'!F5/SUM('ISIC Split'!F5:G5))</f>
+        <v>8398377608.9821539</v>
+      </c>
+      <c r="M2" s="12">
+        <f>'OECD VAL'!L9*10^6*About!$A$22*('ISIC Split'!G5/SUM('ISIC Split'!F5:G5))</f>
+        <v>3496813165.3336134</v>
+      </c>
+      <c r="N2">
+        <f>'OECD VAL'!M9*10^6*About!$A$22</f>
         <v>3055148056.2828827</v>
       </c>
-      <c r="N2">
-        <f>'OECD VAL'!N9*10^6*About!$A$21</f>
+      <c r="O2">
+        <f>'OECD VAL'!N9*10^6*About!$A$22</f>
         <v>4646963108.8740473</v>
       </c>
-      <c r="O2">
-        <f>'OECD VAL'!O9*10^6*About!$A$21</f>
+      <c r="P2">
+        <f>'OECD VAL'!O9*10^6*About!$A$22</f>
         <v>5305539680.1157722</v>
       </c>
-      <c r="P2">
-        <f>'OECD VAL'!P9*10^6*About!$A$21</f>
+      <c r="Q2">
+        <f>'OECD VAL'!P9*10^6*About!$A$22</f>
         <v>3620140300.9151244</v>
       </c>
-      <c r="Q2">
-        <f>'OECD VAL'!Q9*10^6*About!$A$21</f>
+      <c r="R2">
+        <f>'OECD VAL'!Q9*10^6*About!$A$22</f>
         <v>1923835504.5840595</v>
       </c>
-      <c r="R2">
-        <f>'OECD VAL'!R9*10^6*About!$A$21</f>
+      <c r="S2">
+        <f>'OECD VAL'!R9*10^6*About!$A$22</f>
         <v>3666242762.9410548</v>
       </c>
-      <c r="S2">
-        <f>'OECD VAL'!S9*10^6*About!$A$21</f>
+      <c r="T2">
+        <f>'OECD VAL'!S9*10^6*About!$A$22</f>
         <v>4853009428.5557575</v>
       </c>
-      <c r="T2">
-        <f>'OECD VAL'!T9*10^6*About!$A$21</f>
+      <c r="U2">
+        <f>'OECD VAL'!T9*10^6*About!$A$22</f>
         <v>13127427352.890299</v>
       </c>
-      <c r="U2">
-        <f>'OECD VAL'!U9*10^6*About!$A$21</f>
+      <c r="V2">
+        <f>'OECD VAL'!U9*10^6*About!$A$22</f>
         <v>7639732915.3689404</v>
       </c>
-      <c r="V2">
-        <f>'OECD VAL'!V9*10^6*About!$A$21</f>
+      <c r="W2">
+        <f>'OECD VAL'!V9*10^6*About!$A$22</f>
         <v>2973370989.346756</v>
       </c>
-      <c r="W2">
-        <f>'OECD VAL'!W9*10^6*About!$A$21</f>
+      <c r="X2">
+        <f>'OECD VAL'!W9*10^6*About!$A$22</f>
         <v>17195950010.876858</v>
       </c>
-      <c r="X2">
-        <f>'OECD VAL'!X9*10^6*About!$A$21</f>
+      <c r="Y2">
+        <f>'OECD VAL'!X9*10^6*About!$A$22</f>
         <v>97061772365.484329</v>
       </c>
-      <c r="Y2">
-        <f>'OECD VAL'!Y9*10^6*About!$A$21</f>
+      <c r="Z2">
+        <f>'OECD VAL'!Y9*10^6*About!$A$22</f>
         <v>30348319945.54821</v>
       </c>
-      <c r="Z2">
-        <f>'OECD VAL'!Z9*10^6*About!$A$21</f>
+      <c r="AA2">
+        <f>'OECD VAL'!Z9*10^6*About!$A$22</f>
         <v>32040086468.717438</v>
       </c>
-      <c r="AA2">
-        <f>'OECD VAL'!AA9*10^6*About!$A$21</f>
+      <c r="AB2">
+        <f>'OECD VAL'!AA9*10^6*About!$A$22</f>
         <v>2932240769.8266368</v>
       </c>
-      <c r="AB2">
-        <f>'OECD VAL'!AB9*10^6*About!$A$21</f>
+      <c r="AC2">
+        <f>'OECD VAL'!AB9*10^6*About!$A$22</f>
         <v>4643944697.0976763</v>
       </c>
-      <c r="AC2">
-        <f>'OECD VAL'!AC9*10^6*About!$A$21</f>
+      <c r="AD2">
+        <f>'OECD VAL'!AC9*10^6*About!$A$22</f>
         <v>7662276072.8977251</v>
       </c>
-      <c r="AD2">
-        <f>'OECD VAL'!AD9*10^6*About!$A$21</f>
+      <c r="AE2">
+        <f>'OECD VAL'!AD9*10^6*About!$A$22</f>
         <v>19044720443.132771</v>
       </c>
-      <c r="AE2">
-        <f>'OECD VAL'!AE9*10^6*About!$A$21</f>
+      <c r="AF2">
+        <f>'OECD VAL'!AE9*10^6*About!$A$22</f>
         <v>33380263234.789066</v>
       </c>
-      <c r="AF2">
-        <f>'OECD VAL'!AF9*10^6*About!$A$21</f>
+      <c r="AG2">
+        <f>'OECD VAL'!AF9*10^6*About!$A$22</f>
         <v>34297740298.29084</v>
       </c>
-      <c r="AG2">
-        <f>'OECD VAL'!AG9*10^6*About!$A$21</f>
+      <c r="AH2">
+        <f>'OECD VAL'!AG9*10^6*About!$A$22</f>
         <v>16000180418.737896</v>
       </c>
-      <c r="AH2">
-        <f>'OECD VAL'!AH9*10^6*About!$A$21</f>
+      <c r="AI2">
+        <f>'OECD VAL'!AH9*10^6*About!$A$22</f>
         <v>89610488700.371704</v>
       </c>
-      <c r="AI2">
-        <f>'OECD VAL'!AI9*10^6*About!$A$21</f>
+      <c r="AJ2">
+        <f>'OECD VAL'!AI9*10^6*About!$A$22</f>
         <v>43949334749.996834</v>
       </c>
-      <c r="AJ2">
-        <f>'OECD VAL'!AJ9*10^6*About!$A$21</f>
+      <c r="AK2">
+        <f>'OECD VAL'!AJ9*10^6*About!$A$22</f>
         <v>18240369888.261181</v>
       </c>
-      <c r="AK2">
-        <f>'OECD VAL'!AK9*10^6*About!$A$21</f>
+      <c r="AL2">
+        <f>'OECD VAL'!AK9*10^6*About!$A$22</f>
         <v>22894801532.050446</v>
       </c>
-      <c r="AL2">
-        <f>'OECD VAL'!AL9*10^6*About!$A$21</f>
+      <c r="AM2">
+        <f>'OECD VAL'!AL9*10^6*About!$A$22</f>
         <v>3388738741.1029592</v>
       </c>
     </row>
